--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/10/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/10/seed5/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.4</v>
+        <v>-7.509</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.004</v>
+        <v>-10.89</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.470000000000001</v>
+        <v>-7.686000000000002</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.786</v>
+        <v>-8.026999999999999</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.218999999999999</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -978,7 +978,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.362</v>
+        <v>-13.584</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.898000000000001</v>
+        <v>-7.935</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.71</v>
+        <v>-12.732</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.325999999999999</v>
+        <v>-7.712999999999999</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1080,7 +1080,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.324</v>
+        <v>-12.703</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.76</v>
+        <v>-7.603</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1216,7 +1216,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.944</v>
+        <v>-14.162</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1352,7 +1352,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.054</v>
+        <v>-12.705</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.576</v>
+        <v>-13.624</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.073999999999998</v>
+        <v>-8.074000000000002</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.906</v>
+        <v>-11.705</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1607,7 +1607,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.128</v>
+        <v>-11.038</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1658,7 +1658,7 @@
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-12.258</v>
+        <v>-11.555</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1981,7 +1981,7 @@
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-11.078</v>
+        <v>-10.879</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.832</v>
+        <v>-12.635</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.356</v>
+        <v>-8.272</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.988000000000001</v>
+        <v>-7.790000000000001</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
